--- a/LocPlanV1.0/随机数据.xlsx
+++ b/LocPlanV1.0/随机数据.xlsx
@@ -7,11 +7,20 @@
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="4" state="veryHidden" r:id=""/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="results" sheetId="4" state="veryHidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet2!$G$13</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -156,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -171,6 +180,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -178,6 +188,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -234,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,6 +551,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D45"/>
   <sheetViews>
@@ -1092,19 +1117,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H45"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -1122,26 +1148,26 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">RAND()</f>
-        <v>0.52271402847937487</v>
+        <v>0.46305905937603464</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">(1-C2)*RAND()</f>
-        <v>0.18638337123620019</v>
+        <v>0.15951917898545467</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">1-D2-C2</f>
-        <v>0.29090260028442494</v>
+        <v>0.37742176163851071</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
         <f ca="1">RAND()</f>
-        <v>0.35714521478658512</v>
+        <v>0.14037970986250969</v>
       </c>
       <c r="H2">
         <f ca="1">100+100*RAND()</f>
-        <v>141.31055201204521</v>
+        <v>149.71577663927695</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1153,26 +1179,26 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C45" ca="1" si="0">RAND()</f>
-        <v>0.59711221791756164</v>
+        <v>0.13162774974126668</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D45" ca="1" si="1">(1-C3)*RAND()</f>
-        <v>0.23387790971958033</v>
+        <v>0.43959311895136965</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E45" ca="1" si="2">1-D3-C3</f>
-        <v>0.16900987236285803</v>
+        <v>0.42877913130736367</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G45" ca="1" si="3">RAND()</f>
-        <v>0.61308264302043447</v>
+        <v>0.25022375986279921</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H45" ca="1" si="4">100+100*RAND()</f>
-        <v>180.45560030448542</v>
+        <v>172.21907913308877</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1184,26 +1210,26 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54083295602003778</v>
+        <v>0.21100478947343759</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19953448723492057</v>
+        <v>0.1779815179079407</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25963255674504171</v>
+        <v>0.61101369261862171</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96675356386901268</v>
+        <v>0.35124008504915671</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="4"/>
-        <v>146.8516051658703</v>
+        <v>172.55052364781039</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1215,26 +1241,26 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68046851808925235</v>
+        <v>0.50539079956638422</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1880758660924263</v>
+        <v>0.45896270909550707</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13145561581832133</v>
+        <v>3.564649133810871E-2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83579259942846029</v>
+        <v>7.5168317974997678E-2</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="4"/>
-        <v>188.22353882721703</v>
+        <v>180.38310061929104</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1246,26 +1272,26 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54010499292586767</v>
+        <v>0.60669848471272969</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1458463186701022</v>
+        <v>0.33262061735343978</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31404868840403011</v>
+        <v>6.0680897933830469E-2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19544271898723276</v>
+        <v>0.26891973136093894</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="4"/>
-        <v>186.47929617745018</v>
+        <v>162.36929590666119</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1277,26 +1303,26 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8800878257802438</v>
+        <v>0.19030683011526428</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6597784498298543E-2</v>
+        <v>0.25060839406190005</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3314389721457625E-2</v>
+        <v>0.55908477582283567</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44134115006883823</v>
+        <v>0.59559032577562632</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="4"/>
-        <v>112.87029722908972</v>
+        <v>150.78867826262459</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1308,26 +1334,26 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8067690553879634</v>
+        <v>3.1098540410132269E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5815744077637651E-2</v>
+        <v>0.75664239970644331</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16741520053439896</v>
+        <v>0.21225905988342442</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35400177949624423</v>
+        <v>0.30689362180071666</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="4"/>
-        <v>192.14505493626791</v>
+        <v>112.25445955504566</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1339,26 +1365,26 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68626242816426009</v>
+        <v>0.8649861183833113</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25457303341759602</v>
+        <v>0.13149365037754121</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9164538418143953E-2</v>
+        <v>3.5202312391474644E-3</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3721076371982441E-2</v>
+        <v>0.51138845700457614</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="4"/>
-        <v>179.34836900272813</v>
+        <v>126.5078960060474</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1370,26 +1396,26 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76754579834162917</v>
+        <v>0.55557341682059702</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16680018449524547</v>
+        <v>0.15708233180052145</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5654017163125356E-2</v>
+        <v>0.28734425137888153</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87993958732747612</v>
+        <v>0.23372593023878052</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="4"/>
-        <v>124.50419453736662</v>
+        <v>186.28400522823648</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1401,26 +1427,26 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25229710436392128</v>
+        <v>0.25873300894688633</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44126692989916916</v>
+        <v>0.50727631257261807</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30643596573690957</v>
+        <v>0.2339906784804956</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85199978715652935</v>
+        <v>0.34394105420296661</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>112.34598033584547</v>
+        <v>186.84057802286966</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1432,26 +1458,26 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85548456897210612</v>
+        <v>0.3012469544410854</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9356635825938897E-2</v>
+        <v>0.23250887679730672</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5158795201955026E-2</v>
+        <v>0.4662441687616079</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1007537105308893E-2</v>
+        <v>0.54909598741706356</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>166.55059407275371</v>
+        <v>160.32207177843753</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1463,26 +1489,26 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94018737858727142</v>
+        <v>0.67151152422153149</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3824296680783142E-2</v>
+        <v>2.2505671534625259E-2</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5988324731945456E-2</v>
+        <v>0.30598280424384328</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10832234262396445</v>
+        <v>0.67116804451552337</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>162.86972661816253</v>
+        <v>142.62351264816397</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1494,26 +1520,26 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9992014507745615E-2</v>
+        <v>0.66455283454857028</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65429032517579433</v>
+        <v>3.4507821950436092E-2</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27571766031646006</v>
+        <v>0.30093934350099361</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34381000277881357</v>
+        <v>1.4920789552293479E-2</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
-        <v>167.49957718470122</v>
+        <v>155.96004535580479</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1525,26 +1551,26 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53406627858552624</v>
+        <v>0.90556193485379488</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43186614686715746</v>
+        <v>5.4623645373105656E-2</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4067574547316348E-2</v>
+        <v>3.9814419773099408E-2</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80256479472704345</v>
+        <v>3.7377712870835245E-2</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>158.21541353685438</v>
+        <v>173.81851204953466</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1556,26 +1582,26 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36425569508752087</v>
+        <v>0.56819154216784917</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22498763589076945</v>
+        <v>0.39606654983980438</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41075666902170971</v>
+        <v>3.5741907992346444E-2</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76136579639969593</v>
+        <v>0.45010541255134762</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="4"/>
-        <v>168.74376128413263</v>
+        <v>192.25468203670948</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1587,26 +1613,26 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.137979524660234</v>
+        <v>0.17672681607214413</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3376158190741863E-2</v>
+        <v>0.77592014655390784</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82864431714902409</v>
+        <v>4.7353037373948026E-2</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12205797637908855</v>
+        <v>0.67885530164543184</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="4"/>
-        <v>171.92312231996596</v>
+        <v>106.29044127825279</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1618,26 +1644,26 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8681645854951503E-2</v>
+        <v>0.97292097319050574</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15188277451518514</v>
+        <v>2.1463351666550418E-2</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78943557962986333</v>
+        <v>5.6156751429438101E-3</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25790912600102744</v>
+        <v>9.7581470113622282E-2</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="4"/>
-        <v>164.92116404174539</v>
+        <v>119.96773781925674</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1649,26 +1675,26 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55470208913683938</v>
+        <v>0.7122748167508739</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40181789718772565</v>
+        <v>0.24392731996969486</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.348001367543497E-2</v>
+        <v>4.3797863279431248E-2</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32911181387102417</v>
+        <v>0.44066904783906558</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="4"/>
-        <v>119.82233599662833</v>
+        <v>158.55511307181081</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1680,26 +1706,26 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3150909252011469</v>
+        <v>0.74950308618415507</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55392714946828581</v>
+        <v>7.6703098645073187E-2</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13098192533056729</v>
+        <v>0.17379381517077175</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6225734871811609</v>
+        <v>0.1034919690948537</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="4"/>
-        <v>170.8822538186854</v>
+        <v>114.67521079733297</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1711,26 +1737,26 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1396308921542362E-2</v>
+        <v>0.4569771836428167</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3697968463271315</v>
+        <v>0.2646701278459872</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55880684475132614</v>
+        <v>0.2783526885111961</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38037982080010702</v>
+        <v>0.5876312091785445</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="4"/>
-        <v>168.68457977498264</v>
+        <v>192.14742666744922</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1742,26 +1768,26 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90355612998600476</v>
+        <v>0.71350988686446637</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2327856503647398E-2</v>
+        <v>0.11822218570075367</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.41160135103478E-2</v>
+        <v>0.16826792743477992</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92567141900715089</v>
+        <v>0.89490695465132364</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="4"/>
-        <v>182.45219992919164</v>
+        <v>102.00030783833095</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1773,26 +1799,26 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97531497775458975</v>
+        <v>9.46985807216989E-2</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9864179911503476E-2</v>
+        <v>0.71027228598210235</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.820842333906783E-3</v>
+        <v>0.19502913329619875</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88613946649342823</v>
+        <v>0.2310653967669446</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="4"/>
-        <v>185.50700864489892</v>
+        <v>166.7761615523396</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1804,26 +1830,26 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7309690650583055</v>
+        <v>8.1675417671412509E-2</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19673801169305624</v>
+        <v>0.32707252706797507</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.229292324863823E-2</v>
+        <v>0.59125205526061242</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47606232793216763</v>
+        <v>0.60448271521763286</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="4"/>
-        <v>189.21674482817758</v>
+        <v>191.71082501843074</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1835,26 +1861,26 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2785005514330527E-2</v>
+        <v>0.69788230697190756</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28272601685277948</v>
+        <v>6.2634514980036152E-2</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65448897763289005</v>
+        <v>0.2394831780480563</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84074202343582694</v>
+        <v>0.16720869284355311</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="4"/>
-        <v>171.25867518683503</v>
+        <v>192.73728335383072</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1866,26 +1892,26 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1955890088338974</v>
+        <v>0.56875811339350235</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60891080268355091</v>
+        <v>5.2115403990744755E-2</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19550018848255168</v>
+        <v>0.37912648261575288</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12595409634428656</v>
+        <v>0.97161637828638103</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="4"/>
-        <v>132.11888773310488</v>
+        <v>154.30880123991915</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1897,26 +1923,26 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69012485585513617</v>
+        <v>8.1491966537534766E-2</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26073414633206382</v>
+        <v>6.8224831988431864E-2</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9140997812800014E-2</v>
+        <v>0.85028320147403336</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47199542918469295</v>
+        <v>0.68377986926557455</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="4"/>
-        <v>111.45876753634383</v>
+        <v>146.93873495047524</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1928,26 +1954,26 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34970571339551204</v>
+        <v>0.60672851116310789</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56231209988145736</v>
+        <v>0.12307548364396098</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7982186723030598E-2</v>
+        <v>0.27019600519293119</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>1.711567103170486E-2</v>
+        <v>3.0298716011198157E-2</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="4"/>
-        <v>184.09472062684023</v>
+        <v>174.67685201434355</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1959,26 +1985,26 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92165945633659274</v>
+        <v>0.14964200482863954</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5379774461113019E-2</v>
+        <v>0.11276260526799595</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9607692022942667E-3</v>
+        <v>0.73759538990336448</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16518036226452282</v>
+        <v>0.27385807079448587</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="4"/>
-        <v>136.64594410638483</v>
+        <v>178.94997006804624</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1990,26 +2016,26 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1045908273585473</v>
+        <v>0.21119401695156492</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6363938230239947E-2</v>
+        <v>0.46034398929686909</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8390452344112127</v>
+        <v>0.32846199375156604</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82537470014009928</v>
+        <v>0.97514585982880053</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="4"/>
-        <v>178.77531777264545</v>
+        <v>148.17086957282547</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -2021,26 +2047,26 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.580207931379633</v>
+        <v>0.83005157521548167</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16588548747084572</v>
+        <v>6.8148198445092387E-2</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25390658114952125</v>
+        <v>0.10180022633942598</v>
       </c>
       <c r="F31">
         <v>3</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33384617751249768</v>
+        <v>0.48337706951795889</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="4"/>
-        <v>135.3399111280707</v>
+        <v>183.04067815623998</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -2052,26 +2078,26 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90543260941061487</v>
+        <v>0.87695650047459051</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3068602166859343E-2</v>
+        <v>3.1539459675322151E-2</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1498788422525772E-2</v>
+        <v>9.1504039850087371E-2</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27522883246995422</v>
+        <v>0.98401740024690532</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="4"/>
-        <v>173.98400147395523</v>
+        <v>195.11063898478923</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -2083,26 +2109,26 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97992642615989867</v>
+        <v>0.79278117334846721</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5148962688501131E-2</v>
+        <v>0.1691096865604135</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9246111516002555E-3</v>
+        <v>3.810914009111932E-2</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27586011736282268</v>
+        <v>0.21791314708360587</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="4"/>
-        <v>146.80667970224124</v>
+        <v>150.20244510221585</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -2114,26 +2140,26 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61418120381787578</v>
+        <v>0.76467608778661356</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17091074415724075</v>
+        <v>3.898084836748153E-2</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2149080520248835</v>
+        <v>0.19634306384590494</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77650082336495985</v>
+        <v>0.54674554656387742</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="4"/>
-        <v>163.98525032173634</v>
+        <v>164.38698464955371</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -2145,26 +2171,26 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56608131998574218</v>
+        <v>0.8353829843063536</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4421184623103454E-2</v>
+        <v>0.14806222228937962</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34949749539115438</v>
+        <v>1.6554793404266799E-2</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37727028471218493</v>
+        <v>0.30724498893867236</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="4"/>
-        <v>123.72810791777619</v>
+        <v>106.09785179586312</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -2176,26 +2202,26 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4381423831120759E-2</v>
+        <v>0.41531424003844009</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15090743974499929</v>
+        <v>0.37273633812200191</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80471113642387992</v>
+        <v>0.21194942183955801</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68914066980632005</v>
+        <v>0.49348952741891816</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="4"/>
-        <v>167.01239532409141</v>
+        <v>110.75309830178334</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -2207,26 +2233,26 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66694406634112247</v>
+        <v>8.3066608128480102E-2</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18815233846711063</v>
+        <v>0.61233353764026666</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14490359519176688</v>
+        <v>0.30459985423125324</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59726415004536137</v>
+        <v>0.60231014684353967</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="4"/>
-        <v>194.34687800562858</v>
+        <v>148.70200557485495</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -2238,26 +2264,26 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36580441562345933</v>
+        <v>0.19186431342924148</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16861821204144656</v>
+        <v>0.63806755024695438</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46557737233509411</v>
+        <v>0.17006813632380413</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27627428387810526</v>
+        <v>0.23564912887641298</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="4"/>
-        <v>162.29868670375447</v>
+        <v>187.24134954787428</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -2269,26 +2295,26 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84473222457848329</v>
+        <v>0.8964051327728273</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9249741329691397E-2</v>
+        <v>5.2361795645420373E-2</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11601803409182532</v>
+        <v>5.1233071581752387E-2</v>
       </c>
       <c r="F39">
         <v>3</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13673302322464986</v>
+        <v>0.31311747360926923</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="4"/>
-        <v>128.06802442228511</v>
+        <v>182.28340501288545</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -2300,26 +2326,26 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10949254984138246</v>
+        <v>0.24278288893606204</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5028610803930168</v>
+        <v>0.24713090444994654</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38764636976560074</v>
+        <v>0.5100862066139914</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94573155977603152</v>
+        <v>0.64513922759913056</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="4"/>
-        <v>137.5395758096206</v>
+        <v>196.14698432212467</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -2331,26 +2357,26 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13131090348673802</v>
+        <v>0.29370191144628044</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49312513393928775</v>
+        <v>0.51300866650392662</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37556396257397429</v>
+        <v>0.19328942204979294</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95043812793318061</v>
+        <v>0.64664624871959564</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="4"/>
-        <v>186.22399792596849</v>
+        <v>190.2693649850232</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2362,26 +2388,26 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29092886478194702</v>
+        <v>0.82121415274421217</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41929865054040161</v>
+        <v>8.8028908813397214E-2</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28977248467765138</v>
+        <v>9.0756938442390633E-2</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31658599554844735</v>
+        <v>0.79476514308553126</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="4"/>
-        <v>193.92978136785081</v>
+        <v>172.14864817470931</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2393,26 +2419,26 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3579329132629655</v>
+        <v>7.2722395803497375E-2</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6379608773875247E-2</v>
+        <v>0.74948381405853559</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61568747796315926</v>
+        <v>0.17779379013796703</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92405710848609313</v>
+        <v>0.57747519213749932</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="4"/>
-        <v>111.11130635843588</v>
+        <v>175.02697037208139</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2424,26 +2450,26 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19484085362579118</v>
+        <v>0.77365925602911612</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58427298575187425</v>
+        <v>0.10563246873564348</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22088616062233457</v>
+        <v>0.12070827523524041</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87644748089443536</v>
+        <v>0.86966894322789101</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="4"/>
-        <v>120.92495583276755</v>
+        <v>199.84694687986791</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2455,26 +2481,26 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31268928007778996</v>
+        <v>0.66066473294672468</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56238014431907801</v>
+        <v>3.8007921378228463E-2</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12493057560313203</v>
+        <v>0.30132734567504682</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38616636882493705</v>
+        <v>0.19409586446271354</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="4"/>
-        <v>174.93499149188131</v>
+        <v>193.58937973239051</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2490,7 +2516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
